--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Timekeeping.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Timekeeping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\excel_ template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595A4C94-5C2F-406F-91CB-282A298EC61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699ECA4B-4BB2-45A2-AE21-C27530D4AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,7 +64,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -377,19 +377,19 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -417,10 +417,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>45402</v>
+        <v>45411</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
         <v>0.2673611111111111</v>

--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Timekeeping.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Timekeeping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699ECA4B-4BB2-45A2-AE21-C27530D4AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30299369-3DAF-4264-B53B-67289F47760C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4896" yWindow="4644" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Timekeeping.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Timekeeping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30299369-3DAF-4264-B53B-67289F47760C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE15570-8785-4810-B078-19D023B82804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4896" yWindow="4644" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,7 +64,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -377,19 +377,19 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -417,16 +417,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>45411</v>
+        <v>45410</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>0.2673611111111111</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="3">
-        <v>0.51041666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
